--- a/group-reports/tables/sharif-results-after-queue-test-5.xlsx
+++ b/group-reports/tables/sharif-results-after-queue-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>933725</t>
+          <t>933725 usec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>9245.31</t>
+          <t>9245.31 usec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>954155</t>
+          <t>954155 usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>18190.34</t>
+          <t>18190.34 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218 usec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>886743</t>
+          <t>886743 usec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>9812.00</t>
+          <t>9812.00 usec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>554 usec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>908831</t>
+          <t>908831 usec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>17030.91</t>
+          <t>17030.91 usec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 usec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>733696</t>
+          <t>733696 usec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>15282.62</t>
+          <t>15282.62 usec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>538 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>722227</t>
+          <t>722227 usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>24652.88</t>
+          <t>24652.88 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>234 usec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>538683</t>
+          <t>538683 usec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>11672.45</t>
+          <t>11672.45 usec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>529 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>530561</t>
+          <t>530561 usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>14160.39</t>
+          <t>14160.39 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213 usec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>734984</t>
+          <t>734984 usec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>13283.99</t>
+          <t>13283.99 usec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>557 usec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>789674</t>
+          <t>789674 usec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>21043.53</t>
+          <t>21043.53 usec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>260 usec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>791975</t>
+          <t>791975 usec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>12153.99</t>
+          <t>12153.99 usec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>853 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>885596</t>
+          <t>885596 usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>10547.53</t>
+          <t>10547.53 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223 usec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>768259</t>
+          <t>768259 usec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>10283.85</t>
+          <t>10283.85 usec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>943 usec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>750585</t>
+          <t>750585 usec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>14411.72</t>
+          <t>14411.72 usec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>790105</t>
+          <t>790105 usec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>10784.61</t>
+          <t>10784.61 usec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>387 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>814129</t>
+          <t>814129 usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>22075.29</t>
+          <t>22075.29 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194 usec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>808883</t>
+          <t>808883 usec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>11405.61</t>
+          <t>11405.61 usec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>513 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>822893</t>
+          <t>822893 usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>19241.00</t>
+          <t>19241.00 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>241 usec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>1024.8k</t>
+          <t>1024.8k usec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>15048.19</t>
+          <t>15048.19 usec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>536 usec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>1024.9k</t>
+          <t>1024.9k usec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>17032.48</t>
+          <t>17032.48 usec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>185 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>871044</t>
+          <t>871044 usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>34948.63</t>
+          <t>34948.63 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>581 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>1371.2k</t>
+          <t>1371.2k usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>91878.19</t>
+          <t>91878.19 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>675517</t>
+          <t>675517 usec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>11035.21</t>
+          <t>11035.21 usec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>819 usec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>658730</t>
+          <t>658730 usec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>15225.24</t>
+          <t>15225.24 usec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
